--- a/export/e-grafik_12_2021.xlsx
+++ b/export/e-grafik_12_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Grudzień</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Us</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>miki (Mikołaj Mroczkowski)</t>
@@ -656,7 +653,7 @@
   <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A1">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="10.8671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -823,9 +820,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
@@ -842,7 +841,9 @@
       <c r="I2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="27" t="s">
+        <v>1</v>
+      </c>
       <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
@@ -857,26 +858,26 @@
         <v>1</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S2" s="27">
         <v>9</v>
       </c>
       <c r="T2" s="20"/>
       <c r="U2" s="27" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X2" s="27" t="s">
         <v>1</v>
@@ -889,23 +890,23 @@
       </c>
       <c r="AA2" s="20"/>
       <c r="AB2" s="27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
         <f>COUNTIF($B2:$AF2,"R")+COUNTIF($B2:$AF2,"R 7")</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AH2" s="2">
         <f>COUNTIF($B2:$AF2,"S")</f>
@@ -913,19 +914,19 @@
       </c>
       <c r="AI2" s="2">
         <f>COUNTIF($B2:$AF2,"P")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="12">
         <f>COUNTIF($B2:$AF2,"U")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -977,7 +978,7 @@
     </row>
     <row r="4" spans="1:1024" customHeight="1" ht="33.7" s="15" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1031,7 +1032,7 @@
     </row>
     <row r="5" spans="1:1024" customHeight="1" ht="33.7" s="15" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1085,7 +1086,7 @@
     </row>
     <row r="6" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="7" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="8" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="11" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1393,7 +1394,7 @@
     </row>
     <row r="12" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1445,7 +1446,7 @@
     </row>
     <row r="13" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1497,7 +1498,7 @@
     </row>
     <row r="14" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="15" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1701,7 +1702,7 @@
     </row>
     <row r="18" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="17">
         <f>COUNTIF(B$3:B$17,"R")+COUNTIF(B$3:B$17,"12")+COUNTIF(B$3:B$17,"R 7")</f>
@@ -1846,7 +1847,7 @@
     </row>
     <row r="19" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="18">
         <f>COUNTIF(B$3:B$17,"P")+COUNTIF(B$3:B$17,"12")+COUNTIF(B$3:B$17,"R 11")</f>
@@ -2136,7 +2137,7 @@
     </row>
     <row r="21" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2188,7 +2189,7 @@
     </row>
     <row r="22" spans="1:1024" customHeight="1" ht="33.7">
       <c r="A22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
